--- a/form.xlsx
+++ b/form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haeun/Desktop/BOSK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD5E28DF-79F3-4A4A-ADF3-A490336DB7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20DCC98A-9C9D-C04A-AECC-AC3FDE72F41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9D1DD01C-3E3F-AF40-B92A-3C3A40DFF89F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{9D1DD01C-3E3F-AF40-B92A-3C3A40DFF89F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,51 +45,113 @@
 Request/Evidence Form</t>
   </si>
   <si>
-    <t>Request Date
-(MM/DD/YY)</t>
-  </si>
-  <si>
-    <t>Requestor Name</t>
-  </si>
-  <si>
-    <t>(BOSK Employee)</t>
-  </si>
-  <si>
-    <t>Afilliated Unit
-(BOSK Org.)</t>
-  </si>
-  <si>
-    <t>- This form is for the purpose of requesting interpreation or translation 
-services and for providing evidence of service provision.</t>
-  </si>
-  <si>
-    <t>Interpreter Name</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Interpreter Signature</t>
-  </si>
-  <si>
-    <t>SK ME/SAMKOO</t>
-  </si>
-  <si>
-    <t>Service Requestor Signature
-(BOSK Employee)</t>
-  </si>
-  <si>
-    <t>Service Date/Time</t>
-  </si>
-  <si>
-    <t>Service Location</t>
+    <t xml:space="preserve"> Interpreter Signature</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SK ME/SAMKOO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Service Requestor Signature
+ (BOSK Employee)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Purpose</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Interpreter Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Service Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Service Date/Time</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>Request Date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t xml:space="preserve">
+ (MM/DD/YY)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Requestor Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (BOSK Employee)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t xml:space="preserve"> Afilliated Unit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t xml:space="preserve">
+ (BOSK Org.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- This form is for the purpose of requesting interpreation or translation 
+services and for providing evidence of service provision.
+- This form can contain requests and evidence for one person on a maximum 
+weekly basis.
+- If the service is provided on an emergency request basis, this document mush be
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>signed within 1 working day</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t xml:space="preserve"> afterwards to serve as a basis for furture settlements
+- If you wish to substitute evidence of hourly interpretation and translation services 
+provided with a different form than this one, prior consultation with the BOSK
+interpretation manager is required.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -109,6 +171,24 @@
       <color theme="1"/>
       <name val="Aptos"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -284,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -292,21 +372,102 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -316,122 +477,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -772,234 +858,236 @@
   </sheetPr>
   <dimension ref="B1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" s="1" customFormat="1" ht="74" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="2:9" s="1" customFormat="1" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="2:9" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="43"/>
+      <c r="B3" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="10"/>
       <c r="H3" s="11"/>
       <c r="I3" s="12"/>
     </row>
     <row r="4" spans="2:9" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="42"/>
       <c r="H4" s="11"/>
       <c r="I4" s="12"/>
     </row>
     <row r="5" spans="2:9" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="45"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="14"/>
       <c r="H5" s="11"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="2:9" ht="68" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="43"/>
+    <row r="6" spans="2:9" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="49"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="10"/>
       <c r="H6" s="11"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="2:9" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="35" t="s">
+    <row r="7" spans="2:9" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
+    </row>
+    <row r="8" spans="2:9" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="34"/>
-    </row>
-    <row r="8" spans="2:9" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="37"/>
-    </row>
-    <row r="9" spans="2:9" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="37"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="32"/>
+    </row>
+    <row r="9" spans="2:9" ht="61" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
     </row>
     <row r="10" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="26"/>
+      <c r="B10" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="21"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="32"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="23"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="24"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="32"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="23"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="32"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="23"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="32"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="23"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="32"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="23"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="32"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="23"/>
-    </row>
-    <row r="17" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="33"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="30"/>
-    </row>
-    <row r="18" spans="2:9" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="39"/>
-    </row>
-    <row r="19" spans="2:9" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="2:9" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24"/>
+    </row>
+    <row r="17" spans="2:9" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="34"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="27"/>
+    </row>
+    <row r="18" spans="2:9" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="2:9" ht="68" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="2:9" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
@@ -1023,6 +1111,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:E6"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="C10:I17"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
     <mergeCell ref="F18:I20"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F6:G6"/>
@@ -1032,21 +1133,8 @@
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="C10:I17"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="78" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="71" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>